--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0854baf48ed3e786/Documents/College Docs/Software Engineering/Round 2/Projects/Project 2/GroupPirateShipInventory/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdunca10\Downloads\Program Construction\PirateShipProject3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{025DB07E-3CC9-4A6A-8309-1B249045E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E71FD38E-7AF3-48C0-93E9-7333F965DAFC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E69F0-46A7-4CD7-985E-864C15A6BE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18756" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Related User Story</t>
   </si>
@@ -45,18 +43,6 @@
   </si>
   <si>
     <t>Initial Estimate</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
   </si>
   <si>
     <t>Amount Remaining After…</t>
@@ -295,10 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -333,6 +318,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,13 +447,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -601,7 +596,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -609,6 +603,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1505,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,359 +1514,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18">
+        <v>45996</v>
+      </c>
+      <c r="F2" s="18">
+        <v>45997</v>
+      </c>
+      <c r="G2" s="18">
+        <v>45998</v>
+      </c>
+      <c r="H2" s="18">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>4</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7">
+      <c r="C27" s="5"/>
+      <c r="D27" s="6">
         <f>SUM(D3:D26)</f>
         <v>21</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" ref="E27:H27" si="0">SUM(E3:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/documentation/Sprint Backlog  Burndown.xlsx
+++ b/documentation/Sprint Backlog  Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdunca10\Downloads\Program Construction\PirateShipProject3\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\College Docs\Software Engineering\Round 2\Projects\Project 3\PirateShipProject3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1E69F0-46A7-4CD7-985E-864C15A6BE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0534F80-14D5-423D-AFB9-2824215309D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Related User Story</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Allow Officer to remove munition from inventory</t>
+  </si>
+  <si>
+    <t>As a Quartermaster I want to review stock changes so I can ensure all stock is being managed properly.</t>
+  </si>
+  <si>
+    <t>Update how data is carried over between pages so it isn't lost on going to a new page.</t>
+  </si>
+  <si>
+    <t>Justin Smith</t>
+  </si>
+  <si>
+    <t>Update save methods and serialization and implement testing.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +172,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -281,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +320,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -320,15 +348,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,24 +478,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$H$27</c:f>
+              <c:f>Sheet1!$D$29:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,6 +635,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -603,7 +643,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1200,13 +1239,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1498,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,218 +1553,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="12">
         <v>45996</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="12">
         <v>45997</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="12">
         <v>45998</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="12">
         <v>45999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="24">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="25">
+        <v>3</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="28">
+        <v>4</v>
+      </c>
+      <c r="E4" s="25">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25">
+        <v>4</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D5" s="3">
         <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21">
-        <v>3</v>
-      </c>
-      <c r="E4" s="19">
-        <v>3</v>
-      </c>
-      <c r="F4" s="19">
-        <v>3</v>
-      </c>
-      <c r="G4" s="19">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8" t="s">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D9" s="9">
         <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>4</v>
-      </c>
-      <c r="F8" s="19">
-        <v>4</v>
-      </c>
-      <c r="G8" s="19">
-        <v>4</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13">
+        <v>4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>4</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D12" s="9">
         <v>2</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1862,40 +1963,61 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6">
-        <f>SUM(D3:D26)</f>
-        <v>21</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" ref="E27:H27" si="0">SUM(E3:E26)</f>
-        <v>7</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6">
+        <f>SUM(D5:D28)</f>
+        <v>24</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" ref="E29:H29" si="0">SUM(E5:E28)</f>
+        <v>17</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G27" s="6">
+        <v>17</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H27" s="6">
+        <v>15</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="8">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
